--- a/ApolloQA/Data/RatingManual/SC/VA00062.SeatingCapacity_TerritoryFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00062.SeatingCapacity_TerritoryFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.SeatingCapacity_TerritoryFactors" sheetId="1" r:id="Re04d7619350843a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.SeatingCapacity_TerritoryFactors" sheetId="1" r:id="R0ad123b3b52d4566"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -802,7 +802,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -816,6 +816,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>62</x:v>
       </x:c>
       <x:c t="str">
@@ -1572,6 +1586,20 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>71</x:v>
       </x:c>
       <x:c t="str">
@@ -2342,6 +2370,20 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>82</x:v>
       </x:c>
       <x:c t="str">
@@ -3112,6 +3154,20 @@
         <x:v>40</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>92</x:v>
       </x:c>
       <x:c t="str">
@@ -3872,6 +3928,20 @@
       </x:c>
       <x:c t="str">
         <x:v>0.9989</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8979</x:v>
       </x:c>
     </x:row>
     <x:row>
